--- a/EEB319_Lab1_ExcelExample.xlsx
+++ b/EEB319_Lab1_ExcelExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjarviscross/Desktop/TAing/EEB319/EEB319_PopulationEcology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C35225-EE82-F24A-895D-DE9FAFCE2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E67085C-8700-A44F-ACAC-87E035577E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{0B991DD1-3D46-6140-9D2F-15F33AB76BBD}"/>
+    <workbookView xWindow="3160" yWindow="1680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0B991DD1-3D46-6140-9D2F-15F33AB76BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelDescription" sheetId="4" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90697D7-1155-CD4B-A990-CF1690B6EBAC}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F25AD9-5DD9-1B42-9B32-7DA07D93B29B}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,6500 +1067,2500 @@
       <c r="A3">
         <v>0.1</v>
       </c>
-      <c r="B3">
-        <f>(1 + 0.3*0.1 - (1-EXP(-0.001*C2*0.1)))*B2</f>
-        <v>1.0299000049998335</v>
-      </c>
-      <c r="C3">
-        <f>(1 + 1*(B2/(B2 + 1000))*0.1)*C2</f>
-        <v>1.0000999000999</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B25" si="0">(1 + 0.3*0.1 - (1-EXP(-0.001*C3*0.1)))*B3</f>
-        <v>1.0606940100109745</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C25" si="1">(1 + 1*(B3/(B3 + 1000))*0.1)*C3</f>
-        <v>1.0002027944182523</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.0924087447054645</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>1.0003087729187752</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1.1250717379067692</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>1.0004179282815964</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1.1587113414801258</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1.0005303559860839</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1.1933567549369424</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>1.0006461543962504</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1.2290380507745835</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1.0007654248488154</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1.265786200573513</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1.0008882717440106</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1.3036331018744176</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1.0010148026392185</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1.3426116058586151</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>1.0011451283455326</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1.3827555458557441</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1.0012793630273376</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1.4240997667034472</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>1.0014176243050068</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1.466680154984499</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>1.0015600333608183</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1.510533670167592</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1.0017067150481938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.5556983766787664</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>1.0018577980043728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.6</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1.6022134769312875</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>1.0020134147666302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.7</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1.650119345342596</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1.0021737018921582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1.6994575633678126</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>1.0023388000817302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.9</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1.7502709555801574</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>1.002508854307276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.8026036268295493</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1.0026840139434927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.8565010005115887</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>1.0028644329036307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>1.9120098579800773</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>1.0030502697795909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>1.969178379137231</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>1.0032416879864789</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.4</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:B89" si="2">(1 + 0.3*0.1 - (1-EXP(-0.001*C25*0.1)))*B25</f>
-        <v>2.0280561842367431</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C89" si="3">(1 + 1*(B25/(B25 + 1000))*0.1)*C25</f>
-        <v>1.0034388559117666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="2"/>
-        <v>2.0886943769359232</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>1.0036419470692124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.6</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="2"/>
-        <v>2.1511455886341984</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>1.0038511402577059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.7</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="2"/>
-        <v>2.2154640241363919</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>1.0040666197252011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.8</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="2"/>
-        <v>2.2817055086803242</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>1.0042885753379098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.9</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>2.3499275363694734</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>1.0045172027549383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>2.4201893200526379</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>1.0047527036085486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.1</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
-        <v>2.4925518426937954</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>1.004995285690242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.2</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="2"/>
-        <v>2.5670779102766432</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>1.0052451631428616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.3</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="2"/>
-        <v>2.643832206289626</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>1.005502556658924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.4</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>2.7228813478386265</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>1.0057676936853943</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>2.8042939434358911</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>1.0060408086351313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.6</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>2.8881406525152253</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>1.0063221431052312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.7</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>2.9744942467249618</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>1.0066119461025163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.8</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>3.0634296730517616</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>1.0069104742764172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.9</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="2"/>
-        <v>3.1550241188298704</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>1.0072179921595097</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="2"/>
-        <v>3.2493570786920829</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>1.0075347724159784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>3.3465104235203529</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>1.0078610960982892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.2</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>3.4465684714556959</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>1.0081972529123624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.3</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>3.5496180610288133</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="3"/>
-        <v>1.0085435414915529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>3.6557486264746988</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="3"/>
-        <v>1.0089002696797544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.5</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>3.7650522752963633</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="3"/>
-        <v>1.0092677548239564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>3.877623868144755</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="3"/>
-        <v>1.0096463240765987</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.7</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>3.9935611010839418</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="3"/>
-        <v>1.0100363147080802</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.8</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>4.1129645903126875</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="3"/>
-        <v>1.0104380744297936</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>4.2359379594156552</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="3"/>
-        <v>1.0108519617280747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>4.362587929219659</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="3"/>
-        <v>1.0112783462094681</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>4.4930244103326133</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="3"/>
-        <v>1.0117176089577302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5.2</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="2"/>
-        <v>4.6273605984451569</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="3"/>
-        <v>1.0121701429030088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5.3</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="2"/>
-        <v>4.7657130724772792</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="3"/>
-        <v>1.0126363532036522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5.4</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="2"/>
-        <v>4.9082018956547424</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="3"/>
-        <v>1.0131166576411286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.5</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="2"/>
-        <v>5.0549507196026022</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="3"/>
-        <v>1.0136114870285464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5.6</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="2"/>
-        <v>5.2060868915457181</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="3"/>
-        <v>1.0141212856332977</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5.7</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="2"/>
-        <v>5.3617415647088187</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="3"/>
-        <v>1.0146465116143599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5.8</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="2"/>
-        <v>5.5220498120114359</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="3"/>
-        <v>1.0151876374748232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5.9</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="2"/>
-        <v>5.6871507431558355</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="3"/>
-        <v>1.0157451505302277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="2"/>
-        <v>5.8571876252090007</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="3"/>
-        <v>1.0163195533933276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6.1</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="2"/>
-        <v>6.0323080067827108</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="3"/>
-        <v>1.0169113644759176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6.2</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="2"/>
-        <v>6.2126638459188355</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="3"/>
-        <v>1.017521118508397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6.3</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="2"/>
-        <v>6.3984116417901511</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="3"/>
-        <v>1.0181493670777653</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6.4</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="2"/>
-        <v>6.5897125703302599</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="3"/>
-        <v>1.0187966791847831</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6.5</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="2"/>
-        <v>6.786732623909514</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="3"/>
-        <v>1.0194636418210583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6.6</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
-        <v>6.9896427551773801</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>1.0201508605668601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6.7</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
-        <v>7.1986190251951685</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>1.0208589602104909</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.8</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
-        <v>7.4138427559867592</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>1.021588585390093</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6.9</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
-        <v>7.6355006876387392</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>1.0223404012588002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
-        <v>7.863785140085219</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>1.0231150941741933</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7.1</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
-        <v>8.098894179716611</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>1.0239133724130574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7.2</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
-        <v>8.3410317909557694</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>1.0247359669124905</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7.3</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
-        <v>8.5904080529491225</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>1.0255836320384619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7.4</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
-        <v>8.8472393215247802</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>1.0264571463829661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7.5</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
-        <v>9.1117484165740841</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>1.0273573135909815</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7.6</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
-        <v>9.3841648150176926</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>1.0282849632184938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7.7</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
-        <v>9.6647248495220293</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>1.0292409516229104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7.8</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
-        <v>9.9536719131368052</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>1.0302261628872516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7.9</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
-        <v>10.251256670029367</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>1.0312415097795784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
-        <v>10.55773727249678</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>1.0322879347491829</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8.1</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
-        <v>10.873379584441876</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>1.0333664109611476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
-        <v>11.198457411504997</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>1.0344779433709548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
-        <v>11.533252738048727</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>1.0356235698409195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8.4</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
-        <v>11.87805597119881</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>1.0368043623002998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8.5</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
-        <v>12.233166192150279</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>1.0380214279510382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8.6</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
-        <v>12.598891414954071</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>1.0392759105211862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
-        <v>12.975548853005613</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>1.040568991568168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B90">
-        <f t="shared" ref="B90:B153" si="4">(1 + 0.3*0.1 - (1-EXP(-0.001*C89*0.1)))*B89</f>
-        <v>13.363465193463417</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ref="C90:C153" si="5">(1 + 1*(B89/(B89 + 1000))*0.1)*C89</f>
-        <v>1.041901891834152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8.9</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="4"/>
-        <v>13.762976879832335</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="5"/>
-        <v>1.0432758726559168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="4"/>
-        <v>14.174430402953046</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="5"/>
-        <v>1.0446922374317191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9.1</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="4"/>
-        <v>14.598182600646325</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="5"/>
-        <v>1.046152333147808</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="4"/>
-        <v>15.034600966267977</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="5"/>
-        <v>1.0476575519673645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="4"/>
-        <v>15.484063966437686</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="5"/>
-        <v>1.0492093328847967</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9.4</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="4"/>
-        <v>15.946961368212783</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="5"/>
-        <v>1.0508091634484704</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9.5</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="4"/>
-        <v>16.42369457598576</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="5"/>
-        <v>1.0524585815551313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9.6</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="4"/>
-        <v>16.9146769783925</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="5"/>
-        <v>1.054159177319435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="4"/>
-        <v>17.420334305526463</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="5"/>
-        <v>1.0559125950222013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="4"/>
-        <v>17.941104996762704</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="5"/>
-        <v>1.0577205351411942</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9.9</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="4"/>
-        <v>18.477440579504318</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="5"/>
-        <v>1.0595847564684449</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
-      <c r="B102">
-        <f t="shared" si="4"/>
-        <v>19.029806059173072</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="5"/>
-        <v>1.061507078318348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10.1</v>
       </c>
-      <c r="B103">
-        <f t="shared" si="4"/>
-        <v>19.598680320775056</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="5"/>
-        <v>1.0634893828310057</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
-      <c r="B104">
-        <f t="shared" si="4"/>
-        <v>20.184556542382001</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="5"/>
-        <v>1.0655336173755312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10.3</v>
       </c>
-      <c r="B105">
-        <f t="shared" si="4"/>
-        <v>20.787942620878503</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="5"/>
-        <v>1.0676417970582954</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10.4</v>
       </c>
-      <c r="B106">
-        <f t="shared" si="4"/>
-        <v>21.409361610335573</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="5"/>
-        <v>1.0698160073413749</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10.5</v>
       </c>
-      <c r="B107">
-        <f t="shared" si="4"/>
-        <v>22.049352173381244</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="5"/>
-        <v>1.0720584067767576</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10.6</v>
       </c>
-      <c r="B108">
-        <f t="shared" si="4"/>
-        <v>22.708469045949631</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="5"/>
-        <v>1.0743712298621777</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10.7</v>
       </c>
-      <c r="B109">
-        <f t="shared" si="4"/>
-        <v>23.387283515800632</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="5"/>
-        <v>1.0767567900247863</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10.8</v>
       </c>
-      <c r="B110">
-        <f t="shared" si="4"/>
-        <v>24.08638391521389</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="5"/>
-        <v>1.079217482739216</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10.9</v>
       </c>
-      <c r="B111">
-        <f t="shared" si="4"/>
-        <v>24.80637612827184</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="5"/>
-        <v>1.081755788786982</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11</v>
       </c>
-      <c r="B112">
-        <f t="shared" si="4"/>
-        <v>25.547884113158762</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="5"/>
-        <v>1.0843742776645557</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>11.1</v>
       </c>
-      <c r="B113">
-        <f t="shared" si="4"/>
-        <v>26.311550439914633</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="5"/>
-        <v>1.0870756111478792</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11.2</v>
       </c>
-      <c r="B114">
-        <f t="shared" si="4"/>
-        <v>27.098036844095155</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="5"/>
-        <v>1.0898625470215384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11.3</v>
       </c>
-      <c r="B115">
-        <f t="shared" si="4"/>
-        <v>27.908024796802039</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="5"/>
-        <v>1.0927379429812984</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>11.4</v>
       </c>
-      <c r="B116">
-        <f t="shared" si="4"/>
-        <v>28.74221609156066</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="5"/>
-        <v>1.0957047607192141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11.5</v>
       </c>
-      <c r="B117">
-        <f t="shared" si="4"/>
-        <v>29.601333448535723</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="5"/>
-        <v>1.0987660702010775</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11.6</v>
       </c>
-      <c r="B118">
-        <f t="shared" si="4"/>
-        <v>30.486121136589158</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="5"/>
-        <v>1.1019250541465451</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11.7</v>
       </c>
-      <c r="B119">
-        <f t="shared" si="4"/>
-        <v>31.397345613698782</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="5"/>
-        <v>1.1051850127229013</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11.8</v>
       </c>
-      <c r="B120">
-        <f t="shared" si="4"/>
-        <v>32.335796186270443</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="5"/>
-        <v>1.1085493684640821</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11.9</v>
       </c>
-      <c r="B121">
-        <f t="shared" si="4"/>
-        <v>33.302285687891441</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="5"/>
-        <v>1.1120216714272746</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
-      <c r="B122">
-        <f t="shared" si="4"/>
-        <v>34.297651178087989</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="5"/>
-        <v>1.1156056046001646</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12.1</v>
       </c>
-      <c r="B123">
-        <f t="shared" si="4"/>
-        <v>35.322754661664952</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="5"/>
-        <v>1.1193049895726928</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12.2</v>
       </c>
-      <c r="B124">
-        <f t="shared" si="4"/>
-        <v>36.378483829222262</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="5"/>
-        <v>1.123123792488038</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12.3</v>
       </c>
-      <c r="B125">
-        <f t="shared" si="4"/>
-        <v>37.465752819458402</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="5"/>
-        <v>1.1270661302884408</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12.4</v>
       </c>
-      <c r="B126">
-        <f t="shared" si="4"/>
-        <v>38.585503003887972</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="5"/>
-        <v>1.131136277272456</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12.5</v>
       </c>
-      <c r="B127">
-        <f t="shared" si="4"/>
-        <v>39.738703794617678</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="5"/>
-        <v>1.1353386719812468</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12.6</v>
       </c>
-      <c r="B128">
-        <f t="shared" si="4"/>
-        <v>40.926353475842014</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="5"/>
-        <v>1.1396779244326347</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12.7</v>
       </c>
-      <c r="B129">
-        <f t="shared" si="4"/>
-        <v>42.149480059737982</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="5"/>
-        <v>1.1441588237227904</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12.8</v>
       </c>
-      <c r="B130">
-        <f t="shared" si="4"/>
-        <v>43.409142167456331</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="5"/>
-        <v>1.1487863460167047</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12.9</v>
       </c>
-      <c r="B131">
-        <f t="shared" si="4"/>
-        <v>44.706429935925037</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="5"/>
-        <v>1.1535656629499149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13</v>
       </c>
-      <c r="B132">
-        <f t="shared" si="4"/>
-        <v>46.042465951199944</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="5"/>
-        <v>1.1585021504653907</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13.1</v>
       </c>
-      <c r="B133">
-        <f t="shared" si="4"/>
-        <v>47.418406209116526</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="5"/>
-        <v>1.16360139811101</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13.2</v>
       </c>
-      <c r="B134">
-        <f t="shared" si="4"/>
-        <v>48.835441104016532</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="5"/>
-        <v>1.1688692188246845</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13.3</v>
       </c>
-      <c r="B135">
-        <f t="shared" si="4"/>
-        <v>50.294796446343</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="5"/>
-        <v>1.1743116592359395</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13.4</v>
       </c>
-      <c r="B136">
-        <f t="shared" si="4"/>
-        <v>51.797734509917731</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="5"/>
-        <v>1.1799350105146162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>13.5</v>
       </c>
-      <c r="B137">
-        <f t="shared" si="4"/>
-        <v>53.345555109735834</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="5"/>
-        <v>1.1857458197993567</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13.6</v>
       </c>
-      <c r="B138">
-        <f t="shared" si="4"/>
-        <v>54.939596711132886</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="5"/>
-        <v>1.1917509022406696</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13.7</v>
       </c>
-      <c r="B139">
-        <f t="shared" si="4"/>
-        <v>56.581237571201818</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="5"/>
-        <v>1.1979573536956489</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13.8</v>
       </c>
-      <c r="B140">
-        <f t="shared" si="4"/>
-        <v>58.271896913357885</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="5"/>
-        <v>1.2043725641138685</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13.9</v>
       </c>
-      <c r="B141">
-        <f t="shared" si="4"/>
-        <v>60.013036135972321</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="5"/>
-        <v>1.2110042316565877</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
-      <c r="B142">
-        <f t="shared" si="4"/>
-        <v>61.806160056017163</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="5"/>
-        <v>1.2178603775942023</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14.1</v>
       </c>
-      <c r="B143">
-        <f t="shared" si="4"/>
-        <v>63.652818188686247</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="5"/>
-        <v>1.224949362029883</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14.2</v>
       </c>
-      <c r="B144">
-        <f t="shared" si="4"/>
-        <v>65.554606063979733</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="5"/>
-        <v>1.2322799005005483</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14.3</v>
       </c>
-      <c r="B145">
-        <f t="shared" si="4"/>
-        <v>67.513166581262766</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="5"/>
-        <v>1.2398610815097759</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14.4</v>
       </c>
-      <c r="B146">
-        <f t="shared" si="4"/>
-        <v>69.530191402830781</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="5"/>
-        <v>1.2477023850509461</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14.5</v>
       </c>
-      <c r="B147">
-        <f t="shared" si="4"/>
-        <v>71.607422387538108</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="5"/>
-        <v>1.2558137021828706</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14.6</v>
       </c>
-      <c r="B148">
-        <f t="shared" si="4"/>
-        <v>73.746653065568282</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="5"/>
-        <v>1.2642053557244177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14.7</v>
       </c>
-      <c r="B149">
-        <f t="shared" si="4"/>
-        <v>75.949730155448378</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="5"/>
-        <v>1.2728881221392017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14.8</v>
       </c>
-      <c r="B150">
-        <f t="shared" si="4"/>
-        <v>78.218555124431802</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="5"/>
-        <v>1.2818732546862939</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14.9</v>
       </c>
-      <c r="B151">
-        <f t="shared" si="4"/>
-        <v>80.555085793397154</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="5"/>
-        <v>1.2911725079181808</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15</v>
       </c>
-      <c r="B152">
-        <f t="shared" si="4"/>
-        <v>82.961337987432785</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="5"/>
-        <v>1.3007981636128236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>15.1</v>
       </c>
-      <c r="B153">
-        <f t="shared" si="4"/>
-        <v>85.439387233299229</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="5"/>
-        <v>1.310763058232743</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>15.2</v>
       </c>
-      <c r="B154">
-        <f t="shared" ref="B154:B217" si="6">(1 + 0.3*0.1 - (1-EXP(-0.001*C153*0.1)))*B153</f>
-        <v>87.991370504982768</v>
-      </c>
-      <c r="C154">
-        <f t="shared" ref="C154:C217" si="7">(1 + 1*(B153/(B153 + 1000))*0.1)*C153</f>
-        <v>1.3210806120105643</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>15.3</v>
       </c>
-      <c r="B155">
-        <f t="shared" si="6"/>
-        <v>90.619488018575041</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="7"/>
-        <v>1.3317648597674574</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15.4</v>
       </c>
-      <c r="B156">
-        <f t="shared" si="6"/>
-        <v>93.326005077733839</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="7"/>
-        <v>1.3428304835784268</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15.5</v>
       </c>
-      <c r="B157">
-        <f t="shared" si="6"/>
-        <v>96.113253970999637</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="7"/>
-        <v>1.3542928474065028</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>15.6</v>
       </c>
-      <c r="B158">
-        <f t="shared" si="6"/>
-        <v>98.983635922261442</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="7"/>
-        <v>1.3661680338365845</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>15.7</v>
       </c>
-      <c r="B159">
-        <f t="shared" si="6"/>
-        <v>101.939623095683</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="7"/>
-        <v>1.3784728830490505</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>15.8</v>
       </c>
-      <c r="B160">
-        <f t="shared" si="6"/>
-        <v>104.98376065641644</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="7"/>
-        <v>1.391225034183327</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15.9</v>
       </c>
-      <c r="B161">
-        <f t="shared" si="6"/>
-        <v>108.11866888844511</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="7"/>
-        <v>1.4044429692524498</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16</v>
       </c>
-      <c r="B162">
-        <f t="shared" si="6"/>
-        <v>111.34704537091078</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="7"/>
-        <v>1.4181460597813393</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>16.100000000000001</v>
       </c>
-      <c r="B163">
-        <f t="shared" si="6"/>
-        <v>114.67166721429058</v>
-      </c>
-      <c r="C163">
-        <f t="shared" si="7"/>
-        <v>1.4323546163540837</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>16.2</v>
       </c>
-      <c r="B164">
-        <f t="shared" si="6"/>
-        <v>118.09539335779795</v>
-      </c>
-      <c r="C164">
-        <f t="shared" si="7"/>
-        <v>1.4470899412690779</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>16.3</v>
       </c>
-      <c r="B165">
-        <f t="shared" si="6"/>
-        <v>121.62116692938811</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="7"/>
-        <v>1.4623743845154689</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>16.399999999999999</v>
       </c>
-      <c r="B166">
-        <f t="shared" si="6"/>
-        <v>125.25201766975108</v>
-      </c>
-      <c r="C166">
-        <f t="shared" si="7"/>
-        <v>1.4782314033001021</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>16.5</v>
       </c>
-      <c r="B167">
-        <f t="shared" si="6"/>
-        <v>128.99106442167513</v>
-      </c>
-      <c r="C167">
-        <f t="shared" si="7"/>
-        <v>1.4946856253711318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>16.600000000000001</v>
       </c>
-      <c r="B168">
-        <f t="shared" si="6"/>
-        <v>132.84151768615948</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="7"/>
-        <v>1.5117629164027628</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>16.7</v>
       </c>
-      <c r="B169">
-        <f t="shared" si="6"/>
-        <v>136.80668224664615</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="7"/>
-        <v>1.5294904517253369</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>16.8</v>
       </c>
-      <c r="B170">
-        <f t="shared" si="6"/>
-        <v>140.88995986272855</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="7"/>
-        <v>1.5478967927062803</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>16.899999999999999</v>
       </c>
-      <c r="B171">
-        <f t="shared" si="6"/>
-        <v>145.09485203467452</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="7"/>
-        <v>1.5670119681104249</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>17</v>
       </c>
-      <c r="B172">
-        <f t="shared" si="6"/>
-        <v>149.42496284007805</v>
-      </c>
-      <c r="C172">
-        <f t="shared" si="7"/>
-        <v>1.5868675607930354</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>17.100000000000001</v>
       </c>
-      <c r="B173">
-        <f t="shared" si="6"/>
-        <v>153.88400184392188</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="7"/>
-        <v>1.607496800105686</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>17.2</v>
       </c>
-      <c r="B174">
-        <f t="shared" si="6"/>
-        <v>158.47578708329453</v>
-      </c>
-      <c r="C174">
-        <f t="shared" si="7"/>
-        <v>1.6289346604240771</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>17.3</v>
       </c>
-      <c r="B175">
-        <f t="shared" si="6"/>
-        <v>163.20424812795798</v>
-      </c>
-      <c r="C175">
-        <f t="shared" si="7"/>
-        <v>1.6512179662381679</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>17.399999999999999</v>
       </c>
-      <c r="B176">
-        <f t="shared" si="6"/>
-        <v>168.07342921790561</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="7"/>
-        <v>1.6743855042787983</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>17.5</v>
       </c>
-      <c r="B177">
-        <f t="shared" si="6"/>
-        <v>173.08749247898308</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="7"/>
-        <v>1.6984781431915179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>17.600000000000001</v>
       </c>
-      <c r="B178">
-        <f t="shared" si="6"/>
-        <v>178.25072121756594</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="7"/>
-        <v>1.7235389613078314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>17.7</v>
       </c>
-      <c r="B179">
-        <f t="shared" si="6"/>
-        <v>183.56752329519682</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="7"/>
-        <v>1.7496133831068033</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>17.8</v>
       </c>
-      <c r="B180">
-        <f t="shared" si="6"/>
-        <v>189.04243458397863</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="7"/>
-        <v>1.7767493250061606</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>17.899999999999999</v>
       </c>
-      <c r="B181">
-        <f t="shared" si="6"/>
-        <v>194.68012250339868</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="7"/>
-        <v>1.8049973511720327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>18</v>
       </c>
-      <c r="B182">
-        <f t="shared" si="6"/>
-        <v>200.4853896391196</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="7"/>
-        <v>1.8344108400905679</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>18.100000000000001</v>
       </c>
-      <c r="B183">
-        <f t="shared" si="6"/>
-        <v>206.46317744411354</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="7"/>
-        <v>1.8650461627032271</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>18.2</v>
       </c>
-      <c r="B184">
-        <f t="shared" si="6"/>
-        <v>212.61857002233526</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="7"/>
-        <v>1.8969628729709549</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>18.3</v>
       </c>
-      <c r="B185">
-        <f t="shared" si="6"/>
-        <v>218.95679799492555</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="7"/>
-        <v>1.9302239118010889</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>18.399999999999999</v>
       </c>
-      <c r="B186">
-        <f t="shared" si="6"/>
-        <v>225.48324244870395</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="7"/>
-        <v>1.964895825345228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>18.5</v>
       </c>
-      <c r="B187">
-        <f t="shared" si="6"/>
-        <v>232.20343896644883</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="7"/>
-        <v>2.0010489987568434</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>18.600000000000001</v>
       </c>
-      <c r="B188">
-        <f t="shared" si="6"/>
-        <v>239.12308173816871</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="7"/>
-        <v>2.0387579065847139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>18.7</v>
       </c>
-      <c r="B189">
-        <f t="shared" si="6"/>
-        <v>246.24802775223787</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="7"/>
-        <v>2.078101381072877</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>18.8</v>
       </c>
-      <c r="B190">
-        <f t="shared" si="6"/>
-        <v>253.584301064898</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="7"/>
-        <v>2.1191628997403416</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>18.899999999999999</v>
       </c>
-      <c r="B191">
-        <f t="shared" si="6"/>
-        <v>261.13809714621243</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="7"/>
-        <v>2.1620308937250154</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>19</v>
       </c>
-      <c r="B192">
-        <f t="shared" si="6"/>
-        <v>268.91578730009343</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="7"/>
-        <v>2.2067990784968705</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>19.100000000000001</v>
       </c>
-      <c r="B193">
-        <f t="shared" si="6"/>
-        <v>276.92392315550245</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="7"/>
-        <v>2.2535668086761755</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>19.2</v>
       </c>
-      <c r="B194">
-        <f t="shared" si="6"/>
-        <v>285.1692412253426</v>
-      </c>
-      <c r="C194">
-        <f t="shared" si="7"/>
-        <v>2.3024394588344919</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>19.3</v>
       </c>
-      <c r="B195">
-        <f t="shared" si="6"/>
-        <v>293.65866752891355</v>
-      </c>
-      <c r="C195">
-        <f t="shared" si="7"/>
-        <v>2.3535288323100896</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>19.399999999999999</v>
       </c>
-      <c r="B196">
-        <f t="shared" si="6"/>
-        <v>302.39932227307486</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="7"/>
-        <v>2.4069536002364882</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>19.5</v>
       </c>
-      <c r="B197">
-        <f t="shared" si="6"/>
-        <v>311.39852458645885</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="7"/>
-        <v>2.4628397731641516</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>19.600000000000001</v>
       </c>
-      <c r="B198">
-        <f t="shared" si="6"/>
-        <v>320.66379730017468</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="7"/>
-        <v>2.5213212078522083</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>19.7</v>
       </c>
-      <c r="B199">
-        <f t="shared" si="6"/>
-        <v>330.20287176744705</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="7"/>
-        <v>2.5825401520207509</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>19.8</v>
       </c>
-      <c r="B200">
-        <f t="shared" si="6"/>
-        <v>340.02369271352018</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="7"/>
-        <v>2.6466478300863474</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19.899999999999999</v>
       </c>
-      <c r="B201">
-        <f t="shared" si="6"/>
-        <v>350.13442310592131</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="7"/>
-        <v>2.7138050731553758</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20</v>
       </c>
-      <c r="B202">
-        <f t="shared" si="6"/>
-        <v>360.54344903380297</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="7"/>
-        <v>2.7841829968235463</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>20.100000000000001</v>
       </c>
-      <c r="B203">
-        <f t="shared" si="6"/>
-        <v>371.25938458355677</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="7"/>
-        <v>2.8579637306272994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>20.2</v>
       </c>
-      <c r="B204">
-        <f t="shared" si="6"/>
-        <v>382.29107669619248</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="7"/>
-        <v>2.9353412033158128</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>20.3</v>
       </c>
-      <c r="B205">
-        <f t="shared" si="6"/>
-        <v>393.6476099900936</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="7"/>
-        <v>3.0165219884633485</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>20.399999999999999</v>
       </c>
-      <c r="B206">
-        <f t="shared" si="6"/>
-        <v>405.33831153066649</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="7"/>
-        <v>3.1017262153230782</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>20.5</v>
       </c>
-      <c r="B207">
-        <f t="shared" si="6"/>
-        <v>417.37275552607844</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="7"/>
-        <v>3.1911885502380137</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>20.6</v>
       </c>
-      <c r="B208">
-        <f t="shared" si="6"/>
-        <v>429.7607679257008</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="7"/>
-        <v>3.2851592543751731</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>20.7</v>
       </c>
-      <c r="B209">
-        <f t="shared" si="6"/>
-        <v>442.51243089501475</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="7"/>
-        <v>3.3839053240387567</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>20.8</v>
       </c>
-      <c r="B210">
-        <f t="shared" si="6"/>
-        <v>455.63808713756225</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="7"/>
-        <v>3.4877117203503567</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>20.9</v>
       </c>
-      <c r="B211">
-        <f t="shared" si="6"/>
-        <v>469.14834403100446</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="7"/>
-        <v>3.5968826956628157</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>21</v>
       </c>
-      <c r="B212">
-        <f t="shared" si="6"/>
-        <v>483.05407754044813</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="7"/>
-        <v>3.7117432247033313</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21.1</v>
       </c>
-      <c r="B213">
-        <f t="shared" si="6"/>
-        <v>497.36643586786874</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="7"/>
-        <v>3.8326405491252169</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>21.2</v>
       </c>
-      <c r="B214">
-        <f t="shared" si="6"/>
-        <v>512.09684279166049</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="7"/>
-        <v>3.9599458448911284</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21.3</v>
       </c>
-      <c r="B215">
-        <f t="shared" si="6"/>
-        <v>527.25700064502257</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="7"/>
-        <v>4.0940560227188127</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>21.4</v>
       </c>
-      <c r="B216">
-        <f t="shared" si="6"/>
-        <v>542.85889287599241</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="7"/>
-        <v>4.23539567269912</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>21.5</v>
       </c>
-      <c r="B217">
-        <f t="shared" si="6"/>
-        <v>558.91478612540038</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="7"/>
-        <v>4.384419165151324</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>21.6</v>
       </c>
-      <c r="B218">
-        <f t="shared" ref="B218:B281" si="8">(1 + 0.3*0.1 - (1-EXP(-0.001*C217*0.1)))*B217</f>
-        <v>575.43723175177661</v>
-      </c>
-      <c r="C218">
-        <f t="shared" ref="C218:C281" si="9">(1 + 1*(B217/(B217 + 1000))*0.1)*C217</f>
-        <v>4.5416129208193485</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21.7</v>
       </c>
-      <c r="B219">
-        <f t="shared" si="8"/>
-        <v>592.43906672421747</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="9"/>
-        <v>4.7074978646414811</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>21.8</v>
       </c>
-      <c r="B220">
-        <f t="shared" si="8"/>
-        <v>609.93341379532797</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="9"/>
-        <v>4.8826320785534438</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>21.9</v>
       </c>
-      <c r="B221">
-        <f t="shared" si="8"/>
-        <v>627.93368085651423</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="9"/>
-        <v>5.0676136701186518</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>22</v>
       </c>
-      <c r="B222">
-        <f t="shared" si="8"/>
-        <v>646.45355936699639</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="9"/>
-        <v>5.2630838752293521</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>22.1</v>
       </c>
-      <c r="B223">
-        <f t="shared" si="8"/>
-        <v>665.50702173584773</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="9"/>
-        <v>5.469730414697926</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>22.2</v>
       </c>
-      <c r="B224">
-        <f t="shared" si="8"/>
-        <v>685.10831752300805</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="9"/>
-        <v>5.6882911262696929</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>22.3</v>
       </c>
-      <c r="B225">
-        <f t="shared" si="8"/>
-        <v>705.2719683104458</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="9"/>
-        <v>5.9195578954485519</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>22.4</v>
       </c>
-      <c r="B226">
-        <f t="shared" si="8"/>
-        <v>726.01276107829494</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="9"/>
-        <v>6.1643809105472558</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>22.5</v>
       </c>
-      <c r="B227">
-        <f t="shared" si="8"/>
-        <v>747.34573990272736</v>
-      </c>
-      <c r="C227">
-        <f t="shared" si="9"/>
-        <v>6.423673269568333</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>22.6</v>
       </c>
-      <c r="B228">
-        <f t="shared" si="8"/>
-        <v>769.28619577234213</v>
-      </c>
-      <c r="C228">
-        <f t="shared" si="9"/>
-        <v>6.698415968904194</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>22.7</v>
       </c>
-      <c r="B229">
-        <f t="shared" si="8"/>
-        <v>791.8496542977939</v>
-      </c>
-      <c r="C229">
-        <f t="shared" si="9"/>
-        <v>6.9896633064311553</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>22.8</v>
       </c>
-      <c r="B230">
-        <f t="shared" si="8"/>
-        <v>815.05186106501378</v>
-      </c>
-      <c r="C230">
-        <f t="shared" si="9"/>
-        <v>7.2985487343787643</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>22.9</v>
       </c>
-      <c r="B231">
-        <f t="shared" si="8"/>
-        <v>838.90876435548603</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="9"/>
-        <v>7.6262912004005674</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>23</v>
       </c>
-      <c r="B232">
-        <f t="shared" si="8"/>
-        <v>863.43649492739246</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="9"/>
-        <v>7.9742020185746005</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>23.1</v>
       </c>
-      <c r="B233">
-        <f t="shared" si="8"/>
-        <v>888.65134251874144</v>
-      </c>
-      <c r="C233">
-        <f t="shared" si="9"/>
-        <v>8.3436923156415403</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>23.2</v>
       </c>
-      <c r="B234">
-        <f t="shared" si="8"/>
-        <v>914.5697286976025</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="9"/>
-        <v>8.7362811016675455</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>23.3</v>
       </c>
-      <c r="B235">
-        <f t="shared" si="8"/>
-        <v>941.20817564495155</v>
-      </c>
-      <c r="C235">
-        <f t="shared" si="9"/>
-        <v>9.1536040185201628</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>23.4</v>
       </c>
-      <c r="B236">
-        <f t="shared" si="8"/>
-        <v>968.58327041207883</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="9"/>
-        <v>9.5974228240939272</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>23.5</v>
       </c>
-      <c r="B237">
-        <f t="shared" si="8"/>
-        <v>996.71162414668515</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="9"/>
-        <v>10.069635675143024</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>23.6</v>
       </c>
-      <c r="B238">
-        <f t="shared" si="8"/>
-        <v>1025.6098257293283</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="9"/>
-        <v>10.572288276898995</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>23.7</v>
       </c>
-      <c r="B239">
-        <f t="shared" si="8"/>
-        <v>1055.2943892044129</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="9"/>
-        <v>11.107585973400171</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>23.8</v>
       </c>
-      <c r="B240">
-        <f t="shared" si="8"/>
-        <v>1085.7816943270584</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="9"/>
-        <v>11.677906858666258</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>23.9</v>
       </c>
-      <c r="B241">
-        <f t="shared" si="8"/>
-        <v>1117.0879194785362</v>
-      </c>
-      <c r="C241">
-        <f t="shared" si="9"/>
-        <v>12.285815995546812</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>24</v>
       </c>
-      <c r="B242">
-        <f t="shared" si="8"/>
-        <v>1149.2289661281532</v>
-      </c>
-      <c r="C242">
-        <f t="shared" si="9"/>
-        <v>12.934080836288144</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>24.1</v>
       </c>
-      <c r="B243">
-        <f t="shared" si="8"/>
-        <v>1182.2203739380986</v>
-      </c>
-      <c r="C243">
-        <f t="shared" si="9"/>
-        <v>13.62568794663169</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>24.2</v>
       </c>
-      <c r="B244">
-        <f t="shared" si="8"/>
-        <v>1216.0772255194784</v>
-      </c>
-      <c r="C244">
-        <f t="shared" si="9"/>
-        <v>14.36386114361091</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>24.3</v>
       </c>
-      <c r="B245">
-        <f t="shared" si="8"/>
-        <v>1250.8140397522468</v>
-      </c>
-      <c r="C245">
-        <f t="shared" si="9"/>
-        <v>15.152081166185924</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>24.4</v>
       </c>
-      <c r="B246">
-        <f t="shared" si="8"/>
-        <v>1286.4446524787065</v>
-      </c>
-      <c r="C246">
-        <f t="shared" si="9"/>
-        <v>15.994107007477421</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>24.5</v>
       </c>
-      <c r="B247">
-        <f t="shared" si="8"/>
-        <v>1322.9820832694986</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="9"/>
-        <v>16.893999047664611</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>24.6</v>
       </c>
-      <c r="B248">
-        <f t="shared" si="8"/>
-        <v>1360.4383868424709</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="9"/>
-        <v>17.856144137624792</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>24.7</v>
       </c>
-      <c r="B249">
-        <f t="shared" si="8"/>
-        <v>1398.8244875885332</v>
-      </c>
-      <c r="C249">
-        <f t="shared" si="9"/>
-        <v>18.885282795139688</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>24.8</v>
       </c>
-      <c r="B250">
-        <f t="shared" si="8"/>
-        <v>1438.1499955248316</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="9"/>
-        <v>19.986538687997122</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>24.9</v>
       </c>
-      <c r="B251">
-        <f t="shared" si="8"/>
-        <v>1478.4230018548153</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="9"/>
-        <v>21.16545059159035</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>25</v>
       </c>
-      <c r="B252">
-        <f t="shared" si="8"/>
-        <v>1519.6498521677865</v>
-      </c>
-      <c r="C252">
-        <f t="shared" si="9"/>
-        <v>22.428007022668126</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>25.1</v>
       </c>
-      <c r="B253">
-        <f t="shared" si="8"/>
-        <v>1561.8348951585674</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="9"/>
-        <v>23.780683765712105</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>25.2</v>
       </c>
-      <c r="B254">
-        <f t="shared" si="8"/>
-        <v>1604.9802045926235</v>
-      </c>
-      <c r="C254">
-        <f t="shared" si="9"/>
-        <v>25.230484523997159</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>25.3</v>
       </c>
-      <c r="B255">
-        <f t="shared" si="8"/>
-        <v>1649.0852720856969</v>
-      </c>
-      <c r="C255">
-        <f t="shared" si="9"/>
-        <v>26.784984943689551</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>25.4</v>
       </c>
-      <c r="B256">
-        <f t="shared" si="8"/>
-        <v>1694.1466681127392</v>
-      </c>
-      <c r="C256">
-        <f t="shared" si="9"/>
-        <v>28.452380276301806</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>25.5</v>
       </c>
-      <c r="B257">
-        <f t="shared" si="8"/>
-        <v>1740.1576685126693</v>
-      </c>
-      <c r="C257">
-        <f t="shared" si="9"/>
-        <v>30.241536962368173</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>25.6</v>
       </c>
-      <c r="B258">
-        <f t="shared" si="8"/>
-        <v>1787.1078436182984</v>
-      </c>
-      <c r="C258">
-        <f t="shared" si="9"/>
-        <v>32.16204843721475</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>25.7</v>
       </c>
-      <c r="B259">
-        <f t="shared" si="8"/>
-        <v>1834.9826070210681</v>
-      </c>
-      <c r="C259">
-        <f t="shared" si="9"/>
-        <v>34.224295478016721</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>25.8</v>
       </c>
-      <c r="B260">
-        <f t="shared" si="8"/>
-        <v>1883.7627208860538</v>
-      </c>
-      <c r="C260">
-        <f t="shared" si="9"/>
-        <v>36.439511429754084</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>25.9</v>
       </c>
-      <c r="B261">
-        <f t="shared" si="8"/>
-        <v>1933.423754673935</v>
-      </c>
-      <c r="C261">
-        <f t="shared" si="9"/>
-        <v>38.819852665928359</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>26</v>
       </c>
-      <c r="B262">
-        <f t="shared" si="8"/>
-        <v>1983.9354941155157</v>
-      </c>
-      <c r="C262">
-        <f t="shared" si="9"/>
-        <v>41.378474657642307</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>26.1</v>
       </c>
-      <c r="B263">
-        <f t="shared" si="8"/>
-        <v>2035.261297335712</v>
-      </c>
-      <c r="C263">
-        <f t="shared" si="9"/>
-        <v>44.129614041437513</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>26.2</v>
       </c>
-      <c r="B264">
-        <f t="shared" si="8"/>
-        <v>2087.3573951556659</v>
-      </c>
-      <c r="C264">
-        <f t="shared" si="9"/>
-        <v>47.088677091585396</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>26.3</v>
       </c>
-      <c r="B265">
-        <f t="shared" si="8"/>
-        <v>2140.1721328352896</v>
-      </c>
-      <c r="C265">
-        <f t="shared" si="9"/>
-        <v>50.272335015654861</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>26.4</v>
       </c>
-      <c r="B266">
-        <f t="shared" si="8"/>
-        <v>2193.6451508797027</v>
-      </c>
-      <c r="C266">
-        <f t="shared" si="9"/>
-        <v>53.698626502291262</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>26.5</v>
       </c>
-      <c r="B267">
-        <f t="shared" si="8"/>
-        <v>2247.7065030519298</v>
-      </c>
-      <c r="C267">
-        <f t="shared" si="9"/>
-        <v>57.387067956195565</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>26.6</v>
       </c>
-      <c r="B268">
-        <f t="shared" si="8"/>
-        <v>2302.275710446339</v>
-      </c>
-      <c r="C268">
-        <f t="shared" si="9"/>
-        <v>61.358771856009483</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>26.7</v>
       </c>
-      <c r="B269">
-        <f t="shared" si="8"/>
-        <v>2357.260751423818</v>
-      </c>
-      <c r="C269">
-        <f t="shared" si="9"/>
-        <v>65.636573664623924</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>26.8</v>
       </c>
-      <c r="B270">
-        <f t="shared" si="8"/>
-        <v>2412.5569884380116</v>
-      </c>
-      <c r="C270">
-        <f t="shared" si="9"/>
-        <v>70.245167706416424</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>26.9</v>
       </c>
-      <c r="B271">
-        <f t="shared" si="8"/>
-        <v>2468.0460343461227</v>
-      </c>
-      <c r="C271">
-        <f t="shared" si="9"/>
-        <v>75.211252399750279</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>27</v>
       </c>
-      <c r="B272">
-        <f t="shared" si="8"/>
-        <v>2523.594562758642</v>
-      </c>
-      <c r="C272">
-        <f t="shared" si="9"/>
-        <v>80.563685192886695</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>27.1</v>
       </c>
-      <c r="B273">
-        <f t="shared" si="8"/>
-        <v>2579.0530694074323</v>
-      </c>
-      <c r="C273">
-        <f t="shared" si="9"/>
-        <v>86.333647493810318</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>27.2</v>
       </c>
-      <c r="B274">
-        <f t="shared" si="8"/>
-        <v>2634.254594474613</v>
-      </c>
-      <c r="C274">
-        <f t="shared" si="9"/>
-        <v>92.554819805147829</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>27.3</v>
       </c>
-      <c r="B275">
-        <f t="shared" si="8"/>
-        <v>2689.0134194044767</v>
-      </c>
-      <c r="C275">
-        <f t="shared" si="9"/>
-        <v>99.26356716927485</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>27.4</v>
       </c>
-      <c r="B276">
-        <f t="shared" si="8"/>
-        <v>2743.1237559992828</v>
-      </c>
-      <c r="C276">
-        <f t="shared" si="9"/>
-        <v>106.49913488968795</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>27.5</v>
       </c>
-      <c r="B277">
-        <f t="shared" si="8"/>
-        <v>2796.3584506595503</v>
-      </c>
-      <c r="C277">
-        <f t="shared" si="9"/>
-        <v>114.30385431530266</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>27.6</v>
       </c>
-      <c r="B278">
-        <f t="shared" si="8"/>
-        <v>2848.4677325485891</v>
-      </c>
-      <c r="C278">
-        <f t="shared" si="9"/>
-        <v>122.72335824549722</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>27.7</v>
       </c>
-      <c r="B279">
-        <f t="shared" si="8"/>
-        <v>2899.1780413076176</v>
-      </c>
-      <c r="C279">
-        <f t="shared" si="9"/>
-        <v>131.80680522455765</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>27.8</v>
       </c>
-      <c r="B280">
-        <f t="shared" si="8"/>
-        <v>2948.1909777714523</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="9"/>
-        <v>141.60711163154073</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>27.9</v>
       </c>
-      <c r="B281">
-        <f t="shared" si="8"/>
-        <v>2995.1824299556361</v>
-      </c>
-      <c r="C281">
-        <f t="shared" si="9"/>
-        <v>152.18119001961384</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>28</v>
       </c>
-      <c r="B282">
-        <f t="shared" ref="B282:B345" si="10">(1 + 0.3*0.1 - (1-EXP(-0.001*C281*0.1)))*B281</f>
-        <v>3039.8019363805461</v>
-      </c>
-      <c r="C282">
-        <f t="shared" ref="C282:C345" si="11">(1 + 1*(B281/(B281 + 1000))*0.1)*C281</f>
-        <v>163.59019159858678</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>28.1</v>
       </c>
-      <c r="B283">
-        <f t="shared" si="10"/>
-        <v>3081.6723594815749</v>
-      </c>
-      <c r="C283">
-        <f t="shared" si="11"/>
-        <v>175.89975006272741</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>28.2</v>
       </c>
-      <c r="B284">
-        <f t="shared" si="10"/>
-        <v>3120.3899532586429</v>
-      </c>
-      <c r="C284">
-        <f t="shared" si="11"/>
-        <v>189.18022311561288</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>28.3</v>
       </c>
-      <c r="B285">
-        <f t="shared" si="10"/>
-        <v>3155.5249211648502</v>
-      </c>
-      <c r="C285">
-        <f t="shared" si="11"/>
-        <v>203.50692700193633</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>28.4</v>
       </c>
-      <c r="B286">
-        <f t="shared" si="10"/>
-        <v>3186.6225721045253</v>
-      </c>
-      <c r="C286">
-        <f t="shared" si="11"/>
-        <v>218.96035808385793</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>28.5</v>
       </c>
-      <c r="B287">
-        <f t="shared" si="10"/>
-        <v>3213.205193711598</v>
-      </c>
-      <c r="C287">
-        <f t="shared" si="11"/>
-        <v>235.6263939504579</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>28.6</v>
       </c>
-      <c r="B288">
-        <f t="shared" si="10"/>
-        <v>3234.7747720045081</v>
-      </c>
-      <c r="C288">
-        <f t="shared" si="11"/>
-        <v>253.59646466875992</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>28.7</v>
       </c>
-      <c r="B289">
-        <f t="shared" si="10"/>
-        <v>3250.8166940086139</v>
-      </c>
-      <c r="C289">
-        <f t="shared" si="11"/>
-        <v>272.96768251021643</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>28.8</v>
       </c>
-      <c r="B290">
-        <f t="shared" si="10"/>
-        <v>3260.8045736627896</v>
-      </c>
-      <c r="C290">
-        <f t="shared" si="11"/>
-        <v>293.84291574433286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>28.9</v>
       </c>
-      <c r="B291">
-        <f t="shared" si="10"/>
-        <v>3264.2063396364601</v>
-      </c>
-      <c r="C291">
-        <f t="shared" si="11"/>
-        <v>316.33078879817367</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>29</v>
       </c>
-      <c r="B292">
-        <f t="shared" si="10"/>
-        <v>3260.4917146127073</v>
-      </c>
-      <c r="C292">
-        <f t="shared" si="11"/>
-        <v>340.54558714456959</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>29.1</v>
       </c>
-      <c r="B293">
-        <f t="shared" si="10"/>
-        <v>3249.1411968797238</v>
-      </c>
-      <c r="C293">
-        <f t="shared" si="11"/>
-        <v>366.60704060367397</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>29.2</v>
       </c>
-      <c r="B294">
-        <f t="shared" si="10"/>
-        <v>3229.6566242146378</v>
-      </c>
-      <c r="C294">
-        <f t="shared" si="11"/>
-        <v>394.63995322061078</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>29.3</v>
       </c>
-      <c r="B295">
-        <f t="shared" si="10"/>
-        <v>3201.5733544134664</v>
-      </c>
-      <c r="C295">
-        <f t="shared" si="11"/>
-        <v>424.77364142125418</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>29.4</v>
       </c>
-      <c r="B296">
-        <f t="shared" si="10"/>
-        <v>3164.4740338557835</v>
-      </c>
-      <c r="C296">
-        <f t="shared" si="11"/>
-        <v>457.14113467477404</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>29.5</v>
       </c>
-      <c r="B297">
-        <f t="shared" si="10"/>
-        <v>3118.003842975018</v>
-      </c>
-      <c r="C297">
-        <f t="shared" si="11"/>
-        <v>491.87808437659055</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>29.6</v>
       </c>
-      <c r="B298">
-        <f t="shared" si="10"/>
-        <v>3061.887003952836</v>
-      </c>
-      <c r="C298">
-        <f t="shared" si="11"/>
-        <v>529.12131716224542</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>29.7</v>
       </c>
-      <c r="B299">
-        <f t="shared" si="10"/>
-        <v>2995.9442111295343</v>
-      </c>
-      <c r="C299">
-        <f t="shared" si="11"/>
-        <v>569.00695856381253</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>29.8</v>
       </c>
-      <c r="B300">
-        <f t="shared" si="10"/>
-        <v>2920.1105001476335</v>
-      </c>
-      <c r="C300">
-        <f t="shared" si="11"/>
-        <v>611.66804224094938</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>29.9</v>
       </c>
-      <c r="B301">
-        <f t="shared" si="10"/>
-        <v>2834.4529119257354</v>
-      </c>
-      <c r="C301">
-        <f t="shared" si="11"/>
-        <v>657.23150971680946</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>30</v>
       </c>
-      <c r="B302">
-        <f t="shared" si="10"/>
-        <v>2739.1871397197638</v>
-      </c>
-      <c r="C302">
-        <f t="shared" si="11"/>
-        <v>705.81449689425733</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>30.1</v>
       </c>
-      <c r="B303">
-        <f t="shared" si="10"/>
-        <v>2634.6921832999733</v>
-      </c>
-      <c r="C303">
-        <f t="shared" si="11"/>
-        <v>757.51979862637177</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>30.2</v>
       </c>
-      <c r="B304">
-        <f t="shared" si="10"/>
-        <v>2521.521889663491</v>
-      </c>
-      <c r="C304">
-        <f t="shared" si="11"/>
-        <v>812.43040429762937</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>30.3</v>
       </c>
-      <c r="B305">
-        <f t="shared" si="10"/>
-        <v>2400.4121552621791</v>
-      </c>
-      <c r="C305">
-        <f t="shared" si="11"/>
-        <v>870.60301013255685</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>30.4</v>
       </c>
-      <c r="B306">
-        <f t="shared" si="10"/>
-        <v>2272.2825249456087</v>
-      </c>
-      <c r="C306">
-        <f t="shared" si="11"/>
-        <v>932.06044389381532</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>30.5</v>
       </c>
-      <c r="B307">
-        <f t="shared" si="10"/>
-        <v>2138.2309746072156</v>
-      </c>
-      <c r="C307">
-        <f t="shared" si="11"/>
-        <v>996.78299283962087</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>30.6</v>
       </c>
-      <c r="B308">
-        <f t="shared" si="10"/>
-        <v>1999.5208345009555</v>
-      </c>
-      <c r="C308">
-        <f t="shared" si="11"/>
-        <v>1064.6987162996547</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>30.7</v>
       </c>
-      <c r="B309">
-        <f t="shared" si="10"/>
-        <v>1857.5591206735144</v>
-      </c>
-      <c r="C309">
-        <f t="shared" si="11"/>
-        <v>1135.6729612930812</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>30.8</v>
       </c>
-      <c r="B310">
-        <f t="shared" si="10"/>
-        <v>1713.866005620406</v>
-      </c>
-      <c r="C310">
-        <f t="shared" si="11"/>
-        <v>1209.4974939891904</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>30.9</v>
       </c>
-      <c r="B311">
-        <f t="shared" si="10"/>
-        <v>1570.0357729801697</v>
-      </c>
-      <c r="C311">
-        <f t="shared" si="11"/>
-        <v>1285.8799179754205</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>31</v>
       </c>
-      <c r="B312">
-        <f t="shared" si="10"/>
-        <v>1427.6903395542308</v>
-      </c>
-      <c r="C312">
-        <f t="shared" si="11"/>
-        <v>1364.434368158702</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>31.1</v>
       </c>
-      <c r="B313">
-        <f t="shared" si="10"/>
-        <v>1288.4272387005983</v>
-      </c>
-      <c r="C313">
-        <f t="shared" si="11"/>
-        <v>1444.6748228261472</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>31.2</v>
       </c>
-      <c r="B314">
-        <f t="shared" si="10"/>
-        <v>1153.7647604738925</v>
-      </c>
-      <c r="C314">
-        <f t="shared" si="11"/>
-        <v>1526.0127111940149</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>31.3</v>
       </c>
-      <c r="B315">
-        <f t="shared" si="10"/>
-        <v>1025.0876278932035</v>
-      </c>
-      <c r="C315">
-        <f t="shared" si="11"/>
-        <v>1607.7607146214402</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>31.4</v>
       </c>
-      <c r="B316">
-        <f t="shared" si="10"/>
-        <v>903.59703154087413</v>
-      </c>
-      <c r="C316">
-        <f t="shared" si="11"/>
-        <v>1689.1446307774918</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>31.5</v>
       </c>
-      <c r="B317">
-        <f t="shared" si="10"/>
-        <v>790.26892480821425</v>
-      </c>
-      <c r="C317">
-        <f t="shared" si="11"/>
-        <v>1769.3247344929443</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>31.6</v>
       </c>
-      <c r="B318">
-        <f t="shared" si="10"/>
-        <v>685.82410618799713</v>
-      </c>
-      <c r="C318">
-        <f t="shared" si="11"/>
-        <v>1847.4270986790459</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>31.7</v>
       </c>
-      <c r="B319">
-        <f t="shared" si="10"/>
-        <v>590.7127478257712</v>
-      </c>
-      <c r="C319">
-        <f t="shared" si="11"/>
-        <v>1922.5838148541407</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>31.8</v>
       </c>
-      <c r="B320">
-        <f t="shared" si="10"/>
-        <v>505.11472083538763</v>
-      </c>
-      <c r="C320">
-        <f t="shared" si="11"/>
-        <v>1993.9791544432737</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>31.9</v>
       </c>
-      <c r="B321">
-        <f t="shared" si="10"/>
-        <v>428.95546622574221</v>
-      </c>
-      <c r="C321">
-        <f t="shared" si="11"/>
-        <v>2060.8968591209064</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>32</v>
       </c>
-      <c r="B322">
-        <f t="shared" si="10"/>
-        <v>361.93550287190408</v>
-      </c>
-      <c r="C322">
-        <f t="shared" si="11"/>
-        <v>2122.7625361095916</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>32.1</v>
       </c>
-      <c r="B323">
-        <f t="shared" si="10"/>
-        <v>303.57023574104289</v>
-      </c>
-      <c r="C323">
-        <f t="shared" si="11"/>
-        <v>2179.1751286563272</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>32.200000000000003</v>
       </c>
-      <c r="B324">
-        <f t="shared" si="10"/>
-        <v>253.23579360956984</v>
-      </c>
-      <c r="C324">
-        <f t="shared" si="11"/>
-        <v>2229.9228896429959</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>32.299999999999997</v>
       </c>
-      <c r="B325">
-        <f t="shared" si="10"/>
-        <v>210.21635504668225</v>
-      </c>
-      <c r="C325">
-        <f t="shared" si="11"/>
-        <v>2274.9819515949735</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>32.4</v>
       </c>
-      <c r="B326">
-        <f t="shared" si="10"/>
-        <v>173.74883301800895</v>
-      </c>
-      <c r="C326">
-        <f t="shared" si="11"/>
-        <v>2314.4987216061368</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>32.5</v>
       </c>
-      <c r="B327">
-        <f t="shared" si="10"/>
-        <v>143.06174243081782</v>
-      </c>
-      <c r="C327">
-        <f t="shared" si="11"/>
-        <v>2348.7600082279714</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>32.6</v>
       </c>
-      <c r="B328">
-        <f t="shared" si="10"/>
-        <v>117.40632076726999</v>
-      </c>
-      <c r="C328">
-        <f t="shared" si="11"/>
-        <v>2378.1562942601104</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>32.700000000000003</v>
       </c>
-      <c r="B329">
-        <f t="shared" si="10"/>
-        <v>96.07923082498553</v>
-      </c>
-      <c r="C329">
-        <f t="shared" si="11"/>
-        <v>2403.143675799789</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>32.799999999999997</v>
       </c>
-      <c r="B330">
-        <f t="shared" si="10"/>
-        <v>78.437221034209614</v>
-      </c>
-      <c r="C330">
-        <f t="shared" si="11"/>
-        <v>2424.2089591697681</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>32.9</v>
       </c>
-      <c r="B331">
-        <f t="shared" si="10"/>
-        <v>63.904829236600484</v>
-      </c>
-      <c r="C331">
-        <f t="shared" si="11"/>
-        <v>2441.8407888446714</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>33</v>
       </c>
-      <c r="B332">
-        <f t="shared" si="10"/>
-        <v>51.976572621853229</v>
-      </c>
-      <c r="C332">
-        <f t="shared" si="11"/>
-        <v>2456.5080235771293</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>33.1</v>
       </c>
-      <c r="B333">
-        <f t="shared" si="10"/>
-        <v>42.215128929251151</v>
-      </c>
-      <c r="C333">
-        <f t="shared" si="11"/>
-        <v>2468.6452584744234</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>33.200000000000003</v>
       </c>
-      <c r="B334">
-        <f t="shared" si="10"/>
-        <v>34.246876649381328</v>
-      </c>
-      <c r="C334">
-        <f t="shared" si="11"/>
-        <v>2478.6445546825057</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>33.299999999999997</v>
       </c>
-      <c r="B335">
-        <f t="shared" si="10"/>
-        <v>27.755919677351343</v>
-      </c>
-      <c r="C335">
-        <f t="shared" si="11"/>
-        <v>2486.8520568020067</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>33.4</v>
       </c>
-      <c r="B336">
-        <f t="shared" si="10"/>
-        <v>22.477449292506364</v>
-      </c>
-      <c r="C336">
-        <f t="shared" si="11"/>
-        <v>2493.5681325371602</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>33.5</v>
       </c>
-      <c r="B337">
-        <f t="shared" si="10"/>
-        <v>18.191041487626865</v>
-      </c>
-      <c r="C337">
-        <f t="shared" si="11"/>
-        <v>2499.0498232380451</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>33.6</v>
       </c>
-      <c r="B338">
-        <f t="shared" si="10"/>
-        <v>14.714274798203235</v>
-      </c>
-      <c r="C338">
-        <f t="shared" si="11"/>
-        <v>2503.5146355533989</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>33.700000000000003</v>
       </c>
-      <c r="B339">
-        <f t="shared" si="10"/>
-        <v>11.896890094154479</v>
-      </c>
-      <c r="C339">
-        <f t="shared" si="11"/>
-        <v>2507.1449582189771</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>33.799999999999997</v>
       </c>
-      <c r="B340">
-        <f t="shared" si="10"/>
-        <v>9.6155963653231744</v>
-      </c>
-      <c r="C340">
-        <f t="shared" si="11"/>
-        <v>2510.0926130946896</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>33.9</v>
       </c>
-      <c r="B341">
-        <f t="shared" si="10"/>
-        <v>7.7695476941460688</v>
-      </c>
-      <c r="C341">
-        <f t="shared" si="11"/>
-        <v>2512.4832296317149</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>34</v>
       </c>
-      <c r="B342">
-        <f t="shared" si="10"/>
-        <v>6.276467457134471</v>
-      </c>
-      <c r="C342">
-        <f t="shared" si="11"/>
-        <v>2514.4202655669674</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>34.1</v>
       </c>
-      <c r="B343">
-        <f t="shared" si="10"/>
-        <v>5.0693680784483774</v>
-      </c>
-      <c r="C343">
-        <f t="shared" si="11"/>
-        <v>2515.9885897284448</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>34.200000000000003</v>
       </c>
-      <c r="B344">
-        <f t="shared" si="10"/>
-        <v>4.0938015753886674</v>
-      </c>
-      <c r="C344">
-        <f t="shared" si="11"/>
-        <v>2517.2576038530015</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>34.299999999999997</v>
       </c>
-      <c r="B345">
-        <f t="shared" si="10"/>
-        <v>3.3055724992099083</v>
-      </c>
-      <c r="C345">
-        <f t="shared" si="11"/>
-        <v>2518.283917642425</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>34.4</v>
       </c>
-      <c r="B346">
-        <f t="shared" ref="B346:B409" si="12">(1 + 0.3*0.1 - (1-EXP(-0.001*C345*0.1)))*B345</f>
-        <v>2.668846946669114</v>
-      </c>
-      <c r="C346">
-        <f t="shared" ref="C346:C409" si="13">(1 + 1*(B345/(B345 + 1000))*0.1)*C345</f>
-        <v>2519.1136120337983</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>34.5</v>
       </c>
-      <c r="B347">
-        <f t="shared" si="12"/>
-        <v>2.1545965302028183</v>
-      </c>
-      <c r="C347">
-        <f t="shared" si="13"/>
-        <v>2519.7841353768008</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>34.6</v>
       </c>
-      <c r="B348">
-        <f t="shared" si="12"/>
-        <v>1.7393228618015704</v>
-      </c>
-      <c r="C348">
-        <f t="shared" si="13"/>
-        <v>2520.3258799513146</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>34.700000000000003</v>
       </c>
-      <c r="B349">
-        <f t="shared" si="12"/>
-        <v>1.4040151736662259</v>
-      </c>
-      <c r="C349">
-        <f t="shared" si="13"/>
-        <v>2520.7634848573161</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>34.799999999999997</v>
       </c>
-      <c r="B350">
-        <f t="shared" si="12"/>
-        <v>1.1333005479828995</v>
-      </c>
-      <c r="C350">
-        <f t="shared" si="13"/>
-        <v>2521.1169076645288</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>34.9</v>
       </c>
-      <c r="B351">
-        <f t="shared" si="12"/>
-        <v>0.91475252648142757</v>
-      </c>
-      <c r="C351">
-        <f t="shared" si="13"/>
-        <v>2521.4023025436541</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>35</v>
       </c>
-      <c r="B352">
-        <f t="shared" si="12"/>
-        <v>0.73832946879762285</v>
-      </c>
-      <c r="C352">
-        <f t="shared" si="13"/>
-        <v>2521.6327376651971</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>35.1</v>
       </c>
-      <c r="B353">
-        <f t="shared" si="12"/>
-        <v>0.59591888957320349</v>
-      </c>
-      <c r="C353">
-        <f t="shared" si="13"/>
-        <v>2521.8187798807171</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>35.200000000000003</v>
       </c>
-      <c r="B354">
-        <f t="shared" si="12"/>
-        <v>0.48096815427960093</v>
-      </c>
-      <c r="C354">
-        <f t="shared" si="13"/>
-        <v>2521.9689703240961</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>35.299999999999997</v>
       </c>
-      <c r="B355">
-        <f t="shared" si="12"/>
-        <v>0.38818541295572162</v>
-      </c>
-      <c r="C355">
-        <f t="shared" si="13"/>
-        <v>2522.0902106874228</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>35.4</v>
       </c>
-      <c r="B356">
-        <f t="shared" si="12"/>
-        <v>0.31329757378779804</v>
-      </c>
-      <c r="C356">
-        <f t="shared" si="13"/>
-        <v>2522.1880765603132</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>35.5</v>
       </c>
-      <c r="B357">
-        <f t="shared" si="12"/>
-        <v>0.25285454210916258</v>
-      </c>
-      <c r="C357">
-        <f t="shared" si="13"/>
-        <v>2522.2670713519387</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>35.6</v>
       </c>
-      <c r="B358">
-        <f t="shared" si="12"/>
-        <v>0.20407094894243566</v>
-      </c>
-      <c r="C358">
-        <f t="shared" si="13"/>
-        <v>2522.3308318983354</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>35.700000000000003</v>
       </c>
-      <c r="B359">
-        <f t="shared" si="12"/>
-        <v>0.16469823399413236</v>
-      </c>
-      <c r="C359">
-        <f t="shared" si="13"/>
-        <v>2522.3822948408852</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>35.799999999999997</v>
       </c>
-      <c r="B360">
-        <f t="shared" si="12"/>
-        <v>0.13292129043788442</v>
-      </c>
-      <c r="C360">
-        <f t="shared" si="13"/>
-        <v>2522.4238311908634</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>35.9</v>
       </c>
-      <c r="B361">
-        <f t="shared" si="12"/>
-        <v>0.10727497414250409</v>
-      </c>
-      <c r="C361">
-        <f t="shared" si="13"/>
-        <v>2522.4573551178873</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>36</v>
       </c>
-      <c r="B362">
-        <f t="shared" si="12"/>
-        <v>8.6576671761350046E-2</v>
-      </c>
-      <c r="C362">
-        <f t="shared" si="13"/>
-        <v>2522.4844118701294</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>36.1</v>
       </c>
-      <c r="B363">
-        <f t="shared" si="12"/>
-        <v>6.9871846874262761E-2</v>
-      </c>
-      <c r="C363">
-        <f t="shared" si="13"/>
-        <v>2522.5062488100543</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>36.200000000000003</v>
       </c>
-      <c r="B364">
-        <f t="shared" si="12"/>
-        <v>5.6390071616798418E-2</v>
-      </c>
-      <c r="C364">
-        <f t="shared" si="13"/>
-        <v>2522.5238727956694</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>36.299999999999997</v>
       </c>
-      <c r="B365">
-        <f t="shared" si="12"/>
-        <v>4.5509528134393747E-2</v>
-      </c>
-      <c r="C365">
-        <f t="shared" si="13"/>
-        <v>2522.5380965237764</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>36.4</v>
       </c>
-      <c r="B366">
-        <f t="shared" si="12"/>
-        <v>3.6728350492215643E-2</v>
-      </c>
-      <c r="C366">
-        <f t="shared" si="13"/>
-        <v>2522.5495759532005</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>36.5</v>
       </c>
-      <c r="B367">
-        <f t="shared" si="12"/>
-        <v>2.9641490347184798E-2</v>
-      </c>
-      <c r="C367">
-        <f t="shared" si="13"/>
-        <v>2522.5588405214244</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>36.6</v>
       </c>
-      <c r="B368">
-        <f t="shared" si="12"/>
-        <v>2.3922042631502639E-2</v>
-      </c>
-      <c r="C368">
-        <f t="shared" si="13"/>
-        <v>2522.5663175401469</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>36.700000000000003</v>
       </c>
-      <c r="B369">
-        <f t="shared" si="12"/>
-        <v>1.9306172023853829E-2</v>
-      </c>
-      <c r="C369">
-        <f t="shared" si="13"/>
-        <v>2522.5723518896916</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>36.799999999999997</v>
       </c>
-      <c r="B370">
-        <f t="shared" si="12"/>
-        <v>1.5580946301272642E-2</v>
-      </c>
-      <c r="C370">
-        <f t="shared" si="13"/>
-        <v>2522.5772219172472</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>36.9</v>
       </c>
-      <c r="B371">
-        <f t="shared" si="12"/>
-        <v>1.2574516248503266E-2</v>
-      </c>
-      <c r="C371">
-        <f t="shared" si="13"/>
-        <v>2522.5811522700319</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>37</v>
       </c>
-      <c r="B372">
-        <f t="shared" si="12"/>
-        <v>1.014818971778208E-2</v>
-      </c>
-      <c r="C372">
-        <f t="shared" si="13"/>
-        <v>2522.5843242539145</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>37.1</v>
       </c>
-      <c r="B373">
-        <f t="shared" si="12"/>
-        <v>8.1900345953875506E-3</v>
-      </c>
-      <c r="C373">
-        <f t="shared" si="13"/>
-        <v>2522.5868841943661</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>37.200000000000003</v>
       </c>
-      <c r="B374">
-        <f t="shared" si="12"/>
-        <v>6.6097158218461531E-3</v>
-      </c>
-      <c r="C374">
-        <f t="shared" si="13"/>
-        <v>2522.588950184831</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>37.299999999999997</v>
       </c>
-      <c r="B375">
-        <f t="shared" si="12"/>
-        <v>5.3343284507880199E-3</v>
-      </c>
-      <c r="C375">
-        <f t="shared" si="13"/>
-        <v>2522.5906175334198</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>37.4</v>
       </c>
-      <c r="B376">
-        <f t="shared" si="12"/>
-        <v>4.3050346217233942E-3</v>
-      </c>
-      <c r="C376">
-        <f t="shared" si="13"/>
-        <v>2522.5919631589318</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>37.5</v>
       </c>
-      <c r="B377">
-        <f t="shared" si="12"/>
-        <v>3.4743493701279078E-3</v>
-      </c>
-      <c r="C377">
-        <f t="shared" si="13"/>
-        <v>2522.5930491388303</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>37.6</v>
       </c>
-      <c r="B378">
-        <f t="shared" si="12"/>
-        <v>2.8039501059129702E-3</v>
-      </c>
-      <c r="C378">
-        <f t="shared" si="13"/>
-        <v>2522.5939255727426</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>37.700000000000003</v>
       </c>
-      <c r="B379">
-        <f t="shared" si="12"/>
-        <v>2.2629087335307514E-3</v>
-      </c>
-      <c r="C379">
-        <f t="shared" si="13"/>
-        <v>2522.5946328935097</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>37.799999999999997</v>
       </c>
-      <c r="B380">
-        <f t="shared" si="12"/>
-        <v>1.826264874240607E-3</v>
-      </c>
-      <c r="C380">
-        <f t="shared" si="13"/>
-        <v>2522.5952037323605</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>37.9</v>
       </c>
-      <c r="B381">
-        <f t="shared" si="12"/>
-        <v>1.4738743804173658E-3</v>
-      </c>
-      <c r="C381">
-        <f t="shared" si="13"/>
-        <v>2522.5956644242206</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>38</v>
       </c>
-      <c r="B382">
-        <f t="shared" si="12"/>
-        <v>1.1894800275330905E-3</v>
-      </c>
-      <c r="C382">
-        <f t="shared" si="13"/>
-        <v>2522.5960362225851</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>38.1</v>
       </c>
-      <c r="B383">
-        <f t="shared" si="12"/>
-        <v>9.5996151642893136E-4</v>
-      </c>
-      <c r="C383">
-        <f t="shared" si="13"/>
-        <v>2522.5963362799885</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>38.200000000000003</v>
       </c>
-      <c r="B384">
-        <f t="shared" si="12"/>
-        <v>7.747301888813685E-4</v>
-      </c>
-      <c r="C384">
-        <f t="shared" si="13"/>
-        <v>2522.5965784392965</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>38.299999999999997</v>
       </c>
-      <c r="B385">
-        <f t="shared" si="12"/>
-        <v>6.2524053443585928E-4</v>
-      </c>
-      <c r="C385">
-        <f t="shared" si="13"/>
-        <v>2522.5967738723175</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>38.4</v>
       </c>
-      <c r="B386">
-        <f t="shared" si="12"/>
-        <v>5.0459595373469998E-4</v>
-      </c>
-      <c r="C386">
-        <f t="shared" si="13"/>
-        <v>2522.5969315951947</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>38.5</v>
       </c>
-      <c r="B387">
-        <f t="shared" si="12"/>
-        <v>4.0723059148517124E-4</v>
-      </c>
-      <c r="C387">
-        <f t="shared" si="13"/>
-        <v>2522.5970588843506</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>38.6</v>
       </c>
-      <c r="B388">
-        <f t="shared" si="12"/>
-        <v>3.2865256128490616E-4</v>
-      </c>
-      <c r="C388">
-        <f t="shared" si="13"/>
-        <v>2522.5971616121778</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>38.700000000000003</v>
       </c>
-      <c r="B389">
-        <f t="shared" si="12"/>
-        <v>2.6523671656607261E-4</v>
-      </c>
-      <c r="C389">
-        <f t="shared" si="13"/>
-        <v>2522.5972445179527</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>38.799999999999997</v>
       </c>
-      <c r="B390">
-        <f t="shared" si="12"/>
-        <v>2.1405740754960775E-4</v>
-      </c>
-      <c r="C390">
-        <f t="shared" si="13"/>
-        <v>2522.5973114264762</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>38.9</v>
       </c>
-      <c r="B391">
-        <f t="shared" si="12"/>
-        <v>1.7275350873325365E-4</v>
-      </c>
-      <c r="C391">
-        <f t="shared" si="13"/>
-        <v>2522.5973654245286</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>39</v>
       </c>
-      <c r="B392">
-        <f t="shared" si="12"/>
-        <v>1.3941949015510664E-4</v>
-      </c>
-      <c r="C392">
-        <f t="shared" si="13"/>
-        <v>2522.5974090032755</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>39.1</v>
       </c>
-      <c r="B393">
-        <f t="shared" si="12"/>
-        <v>1.1251750714693065E-4</v>
-      </c>
-      <c r="C393">
-        <f t="shared" si="13"/>
-        <v>2522.5974441731951</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>39.200000000000003</v>
       </c>
-      <c r="B394">
-        <f t="shared" si="12"/>
-        <v>9.0806452940003345E-5</v>
-      </c>
-      <c r="C394">
-        <f t="shared" si="13"/>
-        <v>2522.5974725568299</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>39.299999999999997</v>
       </c>
-      <c r="B395">
-        <f t="shared" si="12"/>
-        <v>7.3284701039836193E-5</v>
-      </c>
-      <c r="C395">
-        <f t="shared" si="13"/>
-        <v>2522.5974954636408</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>39.4</v>
       </c>
-      <c r="B396">
-        <f t="shared" si="12"/>
-        <v>5.9143895844070454E-5</v>
-      </c>
-      <c r="C396">
-        <f t="shared" si="13"/>
-        <v>2522.5975139504199</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>39.5</v>
       </c>
-      <c r="B397">
-        <f t="shared" si="12"/>
-        <v>4.7731659674595861E-5</v>
-      </c>
-      <c r="C397">
-        <f t="shared" si="13"/>
-        <v>2522.5975288700433</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>39.6</v>
       </c>
-      <c r="B398">
-        <f t="shared" si="12"/>
-        <v>3.8521495743622991E-5</v>
-      </c>
-      <c r="C398">
-        <f t="shared" si="13"/>
-        <v>2522.5975409108191</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>39.700000000000003</v>
       </c>
-      <c r="B399">
-        <f t="shared" si="12"/>
-        <v>3.1088498550479299E-5</v>
-      </c>
-      <c r="C399">
-        <f t="shared" si="13"/>
-        <v>2522.5975506282421</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>39.799999999999997</v>
       </c>
-      <c r="B400">
-        <f t="shared" si="12"/>
-        <v>2.508975112626252E-5</v>
-      </c>
-      <c r="C400">
-        <f t="shared" si="13"/>
-        <v>2522.5975584706189</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>39.9</v>
       </c>
-      <c r="B401">
-        <f t="shared" si="12"/>
-        <v>2.0248504767135604E-5</v>
-      </c>
-      <c r="C401">
-        <f t="shared" si="13"/>
-        <v>2522.5975647997529</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>40</v>
       </c>
-      <c r="B402">
-        <f t="shared" si="12"/>
-        <v>1.6341411399083076E-5</v>
-      </c>
-      <c r="C402">
-        <f t="shared" si="13"/>
-        <v>2522.5975699076357</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>40.1</v>
       </c>
-      <c r="B403">
-        <f t="shared" si="12"/>
-        <v>1.318821954775514E-5</v>
-      </c>
-      <c r="C403">
-        <f t="shared" si="13"/>
-        <v>2522.5975740299159</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>40.200000000000003</v>
       </c>
-      <c r="B404">
-        <f t="shared" si="12"/>
-        <v>1.0643458543643102E-5</v>
-      </c>
-      <c r="C404">
-        <f t="shared" si="13"/>
-        <v>2522.5975773567729</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>40.299999999999997</v>
       </c>
-      <c r="B405">
-        <f t="shared" si="12"/>
-        <v>8.5897273186694367E-6</v>
-      </c>
-      <c r="C405">
-        <f t="shared" si="13"/>
-        <v>2522.5975800416895</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>40.4</v>
       </c>
-      <c r="B406">
-        <f t="shared" si="12"/>
-        <v>6.9322781770113609E-6</v>
-      </c>
-      <c r="C406">
-        <f t="shared" si="13"/>
-        <v>2522.597582208532</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>40.5</v>
       </c>
-      <c r="B407">
-        <f t="shared" si="12"/>
-        <v>5.5946456657585711E-6</v>
-      </c>
-      <c r="C407">
-        <f t="shared" si="13"/>
-        <v>2522.597583957267</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>40.6</v>
       </c>
-      <c r="B408">
-        <f t="shared" si="12"/>
-        <v>4.5151188860131895E-6</v>
-      </c>
-      <c r="C408">
-        <f t="shared" si="13"/>
-        <v>2522.5975853685709</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>40.700000000000003</v>
       </c>
-      <c r="B409">
-        <f t="shared" si="12"/>
-        <v>3.6438944966318357E-6</v>
-      </c>
-      <c r="C409">
-        <f t="shared" si="13"/>
-        <v>2522.5975865075538</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>40.799999999999997</v>
       </c>
-      <c r="B410">
-        <f t="shared" ref="B410:B473" si="14">(1 + 0.3*0.1 - (1-EXP(-0.001*C409*0.1)))*B409</f>
-        <v>2.9407790661414871E-6</v>
-      </c>
-      <c r="C410">
-        <f t="shared" ref="C410:C473" si="15">(1 + 1*(B409/(B409 + 1000))*0.1)*C409</f>
-        <v>2522.5975874267615</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>40.9</v>
       </c>
-      <c r="B411">
-        <f t="shared" si="14"/>
-        <v>2.3733347722016596E-6</v>
-      </c>
-      <c r="C411">
-        <f t="shared" si="15"/>
-        <v>2522.5975881686018</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>41</v>
       </c>
-      <c r="B412">
-        <f t="shared" si="14"/>
-        <v>1.9153829015553042E-6</v>
-      </c>
-      <c r="C412">
-        <f t="shared" si="15"/>
-        <v>2522.5975887672985</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>41.1</v>
       </c>
-      <c r="B413">
-        <f t="shared" si="14"/>
-        <v>1.5457961103210149E-6</v>
-      </c>
-      <c r="C413">
-        <f t="shared" si="15"/>
-        <v>2522.5975892504725</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>41.2</v>
       </c>
-      <c r="B414">
-        <f t="shared" si="14"/>
-        <v>1.2475237262649356E-6</v>
-      </c>
-      <c r="C414">
-        <f t="shared" si="15"/>
-        <v>2522.5975896404148</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>41.3</v>
       </c>
-      <c r="B415">
-        <f t="shared" si="14"/>
-        <v>1.0068051259440154E-6</v>
-      </c>
-      <c r="C415">
-        <f t="shared" si="15"/>
-        <v>2522.5975899551149</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>41.4</v>
       </c>
-      <c r="B416">
-        <f t="shared" si="14"/>
-        <v>8.1253489633523913E-7</v>
-      </c>
-      <c r="C416">
-        <f t="shared" si="15"/>
-        <v>2522.5975902090913</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>41.5</v>
       </c>
-      <c r="B417">
-        <f t="shared" si="14"/>
-        <v>6.5575049305329533E-7</v>
-      </c>
-      <c r="C417">
-        <f t="shared" si="15"/>
-        <v>2522.597590414061</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>41.6</v>
       </c>
-      <c r="B418">
-        <f t="shared" si="14"/>
-        <v>5.2921875856731071E-7</v>
-      </c>
-      <c r="C418">
-        <f t="shared" si="15"/>
-        <v>2522.5975905794808</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>41.7</v>
       </c>
-      <c r="B419">
-        <f t="shared" si="14"/>
-        <v>4.2710222467541817E-7</v>
-      </c>
-      <c r="C419">
-        <f t="shared" si="15"/>
-        <v>2522.5975907129814</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>41.8</v>
       </c>
-      <c r="B420">
-        <f t="shared" si="14"/>
-        <v>3.4468980429601554E-7</v>
-      </c>
-      <c r="C420">
-        <f t="shared" si="15"/>
-        <v>2522.5975908207224</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>41.9</v>
       </c>
-      <c r="B421">
-        <f t="shared" si="14"/>
-        <v>2.7817944819810992E-7</v>
-      </c>
-      <c r="C421">
-        <f t="shared" si="15"/>
-        <v>2522.5975909076733</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>42</v>
       </c>
-      <c r="B422">
-        <f t="shared" si="14"/>
-        <v>2.2450273966531594E-7</v>
-      </c>
-      <c r="C422">
-        <f t="shared" si="15"/>
-        <v>2522.5975909778467</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>42.1</v>
       </c>
-      <c r="B423">
-        <f t="shared" si="14"/>
-        <v>1.8118333487022329E-7</v>
-      </c>
-      <c r="C423">
-        <f t="shared" si="15"/>
-        <v>2522.5975910344796</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>42.2</v>
       </c>
-      <c r="B424">
-        <f t="shared" si="14"/>
-        <v>1.4622271818800469E-7</v>
-      </c>
-      <c r="C424">
-        <f t="shared" si="15"/>
-        <v>2522.5975910801849</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>42.3</v>
       </c>
-      <c r="B425">
-        <f t="shared" si="14"/>
-        <v>1.1800800183697488E-7</v>
-      </c>
-      <c r="C425">
-        <f t="shared" si="15"/>
-        <v>2522.5975911170713</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>42.4</v>
       </c>
-      <c r="B426">
-        <f t="shared" si="14"/>
-        <v>9.5237516236026393E-8</v>
-      </c>
-      <c r="C426">
-        <f t="shared" si="15"/>
-        <v>2522.5975911468399</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>42.5</v>
       </c>
-      <c r="B427">
-        <f t="shared" si="14"/>
-        <v>7.6860758233256315E-8</v>
-      </c>
-      <c r="C427">
-        <f t="shared" si="15"/>
-        <v>2522.5975911708642</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>42.6</v>
       </c>
-      <c r="B428">
-        <f t="shared" si="14"/>
-        <v>6.202992675215E-8</v>
-      </c>
-      <c r="C428">
-        <f t="shared" si="15"/>
-        <v>2522.5975911902533</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>42.7</v>
       </c>
-      <c r="B429">
-        <f t="shared" si="14"/>
-        <v>5.0060809980470285E-8</v>
-      </c>
-      <c r="C429">
-        <f t="shared" si="15"/>
-        <v>2522.5975912059012</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>42.8</v>
       </c>
-      <c r="B430">
-        <f t="shared" si="14"/>
-        <v>4.0401219654996853E-8</v>
-      </c>
-      <c r="C430">
-        <f t="shared" si="15"/>
-        <v>2522.5975912185295</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>42.9</v>
       </c>
-      <c r="B431">
-        <f t="shared" si="14"/>
-        <v>3.2605516176148487E-8</v>
-      </c>
-      <c r="C431">
-        <f t="shared" si="15"/>
-        <v>2522.5975912287208</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>43</v>
       </c>
-      <c r="B432">
-        <f t="shared" si="14"/>
-        <v>2.6314049283424294E-8</v>
-      </c>
-      <c r="C432">
-        <f t="shared" si="15"/>
-        <v>2522.5975912369458</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>43.1</v>
       </c>
-      <c r="B433">
-        <f t="shared" si="14"/>
-        <v>2.1236565799147151E-8</v>
-      </c>
-      <c r="C433">
-        <f t="shared" si="15"/>
-        <v>2522.5975912435838</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>43.2</v>
       </c>
-      <c r="B434">
-        <f t="shared" si="14"/>
-        <v>1.71388189663879E-8</v>
-      </c>
-      <c r="C434">
-        <f t="shared" si="15"/>
-        <v>2522.5975912489407</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>43.3</v>
       </c>
-      <c r="B435">
-        <f t="shared" si="14"/>
-        <v>1.3831761610639633E-8</v>
-      </c>
-      <c r="C435">
-        <f t="shared" si="15"/>
-        <v>2522.5975912532645</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>43.4</v>
       </c>
-      <c r="B436">
-        <f t="shared" si="14"/>
-        <v>1.1162824558021801E-8</v>
-      </c>
-      <c r="C436">
-        <f t="shared" si="15"/>
-        <v>2522.5975912567533</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>43.5</v>
       </c>
-      <c r="B437">
-        <f t="shared" si="14"/>
-        <v>9.0088779448947105E-9</v>
-      </c>
-      <c r="C437">
-        <f t="shared" si="15"/>
-        <v>2522.5975912595691</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>43.6</v>
       </c>
-      <c r="B438">
-        <f t="shared" si="14"/>
-        <v>7.2705506929843695E-9</v>
-      </c>
-      <c r="C438">
-        <f t="shared" si="15"/>
-        <v>2522.5975912618414</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>43.7</v>
       </c>
-      <c r="B439">
-        <f t="shared" si="14"/>
-        <v>5.8676460822959606E-9</v>
-      </c>
-      <c r="C439">
-        <f t="shared" si="15"/>
-        <v>2522.5975912636754</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>43.8</v>
       </c>
-      <c r="B440">
-        <f t="shared" si="14"/>
-        <v>4.7354419219302282E-9</v>
-      </c>
-      <c r="C440">
-        <f t="shared" si="15"/>
-        <v>2522.5975912651556</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>43.9</v>
       </c>
-      <c r="B441">
-        <f t="shared" si="14"/>
-        <v>3.8217046293283888E-9</v>
-      </c>
-      <c r="C441">
-        <f t="shared" si="15"/>
-        <v>2522.5975912663503</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>44</v>
       </c>
-      <c r="B442">
-        <f t="shared" si="14"/>
-        <v>3.0842794642226326E-9</v>
-      </c>
-      <c r="C442">
-        <f t="shared" si="15"/>
-        <v>2522.5975912673143</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>44.1</v>
       </c>
-      <c r="B443">
-        <f t="shared" si="14"/>
-        <v>2.4891457441325876E-9</v>
-      </c>
-      <c r="C443">
-        <f t="shared" si="15"/>
-        <v>2522.5975912680924</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>44.2</v>
       </c>
-      <c r="B444">
-        <f t="shared" si="14"/>
-        <v>2.0088473199021613E-9</v>
-      </c>
-      <c r="C444">
-        <f t="shared" si="15"/>
-        <v>2522.5975912687204</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>44.3</v>
       </c>
-      <c r="B445">
-        <f t="shared" si="14"/>
-        <v>1.6212259021755768E-9</v>
-      </c>
-      <c r="C445">
-        <f t="shared" si="15"/>
-        <v>2522.5975912692275</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>44.4</v>
       </c>
-      <c r="B446">
-        <f t="shared" si="14"/>
-        <v>1.308398801563922E-9</v>
-      </c>
-      <c r="C446">
-        <f t="shared" si="15"/>
-        <v>2522.5975912696363</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>44.5</v>
       </c>
-      <c r="B447">
-        <f t="shared" si="14"/>
-        <v>1.0559339211374397E-9</v>
-      </c>
-      <c r="C447">
-        <f t="shared" si="15"/>
-        <v>2522.597591269966</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>44.6</v>
       </c>
-      <c r="B448">
-        <f t="shared" si="14"/>
-        <v>8.521839400004832E-10</v>
-      </c>
-      <c r="C448">
-        <f t="shared" si="15"/>
-        <v>2522.5975912702324</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>44.7</v>
       </c>
-      <c r="B449">
-        <f t="shared" si="14"/>
-        <v>6.8774897089436762E-10</v>
-      </c>
-      <c r="C449">
-        <f t="shared" si="15"/>
-        <v>2522.5975912704475</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>44.8</v>
       </c>
-      <c r="B450">
-        <f t="shared" si="14"/>
-        <v>5.5504290184814294E-10</v>
-      </c>
-      <c r="C450">
-        <f t="shared" si="15"/>
-        <v>2522.5975912706213</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>44.9</v>
       </c>
-      <c r="B451">
-        <f t="shared" si="14"/>
-        <v>4.4794341530075426E-10</v>
-      </c>
-      <c r="C451">
-        <f t="shared" si="15"/>
-        <v>2522.5975912707613</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>45</v>
       </c>
-      <c r="B452">
-        <f t="shared" si="14"/>
-        <v>3.6150953852968842E-10</v>
-      </c>
-      <c r="C452">
-        <f t="shared" si="15"/>
-        <v>2522.5975912708745</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>45.1</v>
       </c>
-      <c r="B453">
-        <f t="shared" si="14"/>
-        <v>2.9175369473887833E-10</v>
-      </c>
-      <c r="C453">
-        <f t="shared" si="15"/>
-        <v>2522.5975912709659</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>45.2</v>
       </c>
-      <c r="B454">
-        <f t="shared" si="14"/>
-        <v>2.3545773851495618E-10</v>
-      </c>
-      <c r="C454">
-        <f t="shared" si="15"/>
-        <v>2522.5975912710392</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>45.3</v>
       </c>
-      <c r="B455">
-        <f t="shared" si="14"/>
-        <v>1.9002448855428071E-10</v>
-      </c>
-      <c r="C455">
-        <f t="shared" si="15"/>
-        <v>2522.5975912710987</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>45.4</v>
       </c>
-      <c r="B456">
-        <f t="shared" si="14"/>
-        <v>1.533579082091715E-10</v>
-      </c>
-      <c r="C456">
-        <f t="shared" si="15"/>
-        <v>2522.5975912711469</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>45.5</v>
       </c>
-      <c r="B457">
-        <f t="shared" si="14"/>
-        <v>1.2376640605231484E-10</v>
-      </c>
-      <c r="C457">
-        <f t="shared" si="15"/>
-        <v>2522.5975912711856</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>45.6</v>
       </c>
-      <c r="B458">
-        <f t="shared" si="14"/>
-        <v>9.9884795286939911E-11</v>
-      </c>
-      <c r="C458">
-        <f t="shared" si="15"/>
-        <v>2522.597591271217</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>45.7</v>
       </c>
-      <c r="B459">
-        <f t="shared" si="14"/>
-        <v>8.0611311645396694E-11</v>
-      </c>
-      <c r="C459">
-        <f t="shared" si="15"/>
-        <v>2522.597591271242</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>45.8</v>
       </c>
-      <c r="B460">
-        <f t="shared" si="14"/>
-        <v>6.5056784133399531E-11</v>
-      </c>
-      <c r="C460">
-        <f t="shared" si="15"/>
-        <v>2522.597591271262</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>45.9</v>
       </c>
-      <c r="B461">
-        <f t="shared" si="14"/>
-        <v>5.2503613641689546E-11</v>
-      </c>
-      <c r="C461">
-        <f t="shared" si="15"/>
-        <v>2522.5975912712784</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>46</v>
       </c>
-      <c r="B462">
-        <f t="shared" si="14"/>
-        <v>4.2372666927146449E-11</v>
-      </c>
-      <c r="C462">
-        <f t="shared" si="15"/>
-        <v>2522.597591271292</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>46.1</v>
       </c>
-      <c r="B463">
-        <f t="shared" si="14"/>
-        <v>3.419655863636116E-11</v>
-      </c>
-      <c r="C463">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713025</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>46.2</v>
       </c>
-      <c r="B464">
-        <f t="shared" si="14"/>
-        <v>2.7598088753316012E-11</v>
-      </c>
-      <c r="C464">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713106</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>46.3</v>
       </c>
-      <c r="B465">
-        <f t="shared" si="14"/>
-        <v>2.2272840695321921E-11</v>
-      </c>
-      <c r="C465">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713175</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>46.4</v>
       </c>
-      <c r="B466">
-        <f t="shared" si="14"/>
-        <v>1.7975137230457026E-11</v>
-      </c>
-      <c r="C466">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713229</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>46.5</v>
       </c>
-      <c r="B467">
-        <f t="shared" si="14"/>
-        <v>1.4506706300899716E-11</v>
-      </c>
-      <c r="C467">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713275</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>46.6</v>
       </c>
-      <c r="B468">
-        <f t="shared" si="14"/>
-        <v>1.1707533856486321E-11</v>
-      </c>
-      <c r="C468">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713316</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>46.7</v>
       </c>
-      <c r="B469">
-        <f t="shared" si="14"/>
-        <v>9.4484816992725976E-12</v>
-      </c>
-      <c r="C469">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713343</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>46.8</v>
       </c>
-      <c r="B470">
-        <f t="shared" si="14"/>
-        <v>7.6253297676375142E-12</v>
-      </c>
-      <c r="C470">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713366</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>46.9</v>
       </c>
-      <c r="B471">
-        <f t="shared" si="14"/>
-        <v>6.1539680041604123E-12</v>
-      </c>
-      <c r="C471">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713384</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>47</v>
       </c>
-      <c r="B472">
-        <f t="shared" si="14"/>
-        <v>4.9665159868834635E-12</v>
-      </c>
-      <c r="C472">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713402</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>47.1</v>
       </c>
-      <c r="B473">
-        <f t="shared" si="14"/>
-        <v>4.0081913053973136E-12</v>
-      </c>
-      <c r="C473">
-        <f t="shared" si="15"/>
-        <v>2522.5975912713411</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>47.2</v>
       </c>
-      <c r="B474">
-        <f t="shared" ref="B474:B502" si="16">(1 + 0.3*0.1 - (1-EXP(-0.001*C473*0.1)))*B473</f>
-        <v>3.2347822060961359E-12</v>
-      </c>
-      <c r="C474">
-        <f t="shared" ref="C474:C502" si="17">(1 + 1*(B473/(B473 + 1000))*0.1)*C473</f>
-        <v>2522.597591271342</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>47.3</v>
       </c>
-      <c r="B475">
-        <f t="shared" si="16"/>
-        <v>2.6106079085561393E-12</v>
-      </c>
-      <c r="C475">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713425</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>47.4</v>
       </c>
-      <c r="B476">
-        <f t="shared" si="16"/>
-        <v>2.1068724934161186E-12</v>
-      </c>
-      <c r="C476">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713429</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>47.5</v>
       </c>
-      <c r="B477">
-        <f t="shared" si="16"/>
-        <v>1.7003364193317341E-12</v>
-      </c>
-      <c r="C477">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713434</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>47.6</v>
       </c>
-      <c r="B478">
-        <f t="shared" si="16"/>
-        <v>1.3722443802083689E-12</v>
-      </c>
-      <c r="C478">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713438</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>47.7</v>
       </c>
-      <c r="B479">
-        <f t="shared" si="16"/>
-        <v>1.1074600400275659E-12</v>
-      </c>
-      <c r="C479">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>47.8</v>
       </c>
-      <c r="B480">
-        <f t="shared" si="16"/>
-        <v>8.9376772675988263E-13</v>
-      </c>
-      <c r="C480">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>47.9</v>
       </c>
-      <c r="B481">
-        <f t="shared" si="16"/>
-        <v>7.2130886941766737E-13</v>
-      </c>
-      <c r="C481">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>48</v>
       </c>
-      <c r="B482">
-        <f t="shared" si="16"/>
-        <v>5.8212717859790472E-13</v>
-      </c>
-      <c r="C482">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>48.1</v>
       </c>
-      <c r="B483">
-        <f t="shared" si="16"/>
-        <v>4.698015876831484E-13</v>
-      </c>
-      <c r="C483">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>48.2</v>
       </c>
-      <c r="B484">
-        <f t="shared" si="16"/>
-        <v>3.7915002065564335E-13</v>
-      </c>
-      <c r="C484">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>48.3</v>
       </c>
-      <c r="B485">
-        <f t="shared" si="16"/>
-        <v>3.059903200244787E-13</v>
-      </c>
-      <c r="C485">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>48.4</v>
       </c>
-      <c r="B486">
-        <f t="shared" si="16"/>
-        <v>2.4694730541428836E-13</v>
-      </c>
-      <c r="C486">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>48.5</v>
       </c>
-      <c r="B487">
-        <f t="shared" si="16"/>
-        <v>1.9929706157534421E-13</v>
-      </c>
-      <c r="C487">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>48.6</v>
       </c>
-      <c r="B488">
-        <f t="shared" si="16"/>
-        <v>1.6084127213265954E-13</v>
-      </c>
-      <c r="C488">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>48.7</v>
       </c>
-      <c r="B489">
-        <f t="shared" si="16"/>
-        <v>1.2980580153447032E-13</v>
-      </c>
-      <c r="C489">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>48.8</v>
       </c>
-      <c r="B490">
-        <f t="shared" si="16"/>
-        <v>1.0475884633708341E-13</v>
-      </c>
-      <c r="C490">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>48.9</v>
       </c>
-      <c r="B491">
-        <f t="shared" si="16"/>
-        <v>8.4544879783068606E-14</v>
-      </c>
-      <c r="C491">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>49</v>
       </c>
-      <c r="B492">
-        <f t="shared" si="16"/>
-        <v>6.8231342244204075E-14</v>
-      </c>
-      <c r="C492">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>49.1</v>
       </c>
-      <c r="B493">
-        <f t="shared" si="16"/>
-        <v>5.5065618123666019E-14</v>
-      </c>
-      <c r="C493">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>49.2</v>
       </c>
-      <c r="B494">
-        <f t="shared" si="16"/>
-        <v>4.4440314371786937E-14</v>
-      </c>
-      <c r="C494">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>49.3</v>
       </c>
-      <c r="B495">
-        <f t="shared" si="16"/>
-        <v>3.5865238759836335E-14</v>
-      </c>
-      <c r="C495">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>49.4</v>
       </c>
-      <c r="B496">
-        <f t="shared" si="16"/>
-        <v>2.894478514572992E-14</v>
-      </c>
-      <c r="C496">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>49.5</v>
       </c>
-      <c r="B497">
-        <f t="shared" si="16"/>
-        <v>2.3359682414011361E-14</v>
-      </c>
-      <c r="C497">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>49.6</v>
       </c>
-      <c r="B498">
-        <f t="shared" si="16"/>
-        <v>1.8852265088033389E-14</v>
-      </c>
-      <c r="C498">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>49.7</v>
       </c>
-      <c r="B499">
-        <f t="shared" si="16"/>
-        <v>1.5214586082570434E-14</v>
-      </c>
-      <c r="C499">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>49.8</v>
       </c>
-      <c r="B500">
-        <f t="shared" si="16"/>
-        <v>1.2278823185595977E-14</v>
-      </c>
-      <c r="C500">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>49.9</v>
       </c>
-      <c r="B501">
-        <f t="shared" si="16"/>
-        <v>9.9095366778231497E-15</v>
-      </c>
-      <c r="C501">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>50</v>
-      </c>
-      <c r="B502">
-        <f t="shared" si="16"/>
-        <v>7.9974208997746046E-15</v>
-      </c>
-      <c r="C502">
-        <f t="shared" si="17"/>
-        <v>2522.5975912713443</v>
       </c>
     </row>
   </sheetData>

--- a/EEB319_Lab1_ExcelExample.xlsx
+++ b/EEB319_Lab1_ExcelExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjarviscross/Desktop/TAing/EEB319/EEB319_PopulationEcology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E67085C-8700-A44F-ACAC-87E035577E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F4AA6A-011B-8248-970C-6B41AD9D27EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0B991DD1-3D46-6140-9D2F-15F33AB76BBD}"/>
+    <workbookView xWindow="3160" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{0B991DD1-3D46-6140-9D2F-15F33AB76BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelDescription" sheetId="4" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90697D7-1155-CD4B-A990-CF1690B6EBAC}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F25AD9-5DD9-1B42-9B32-7DA07D93B29B}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
